--- a/dmps_cardDB.xlsx
+++ b/dmps_cardDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\healt\dmps_tournament_assist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2920C9A7-18AB-41A5-B868-5616A1080F49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40494CA7-CF2A-45BA-9698-138D63C4B134}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18180" yWindow="900" windowWidth="8370" windowHeight="12600" xr2:uid="{05E5E893-6A96-4335-BC9C-B814DEBE866D}"/>
+    <workbookView xWindow="18210" yWindow="900" windowWidth="8340" windowHeight="12600" xr2:uid="{05E5E893-6A96-4335-BC9C-B814DEBE866D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="668">
   <si>
     <t>暴虐虫タイラント・ワーム</t>
   </si>
@@ -1882,6 +1882,198 @@
   <si>
     <t>ナチュラル・トラップ(PR)</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEAT</t>
+  </si>
+  <si>
+    <t>V4AR</t>
+  </si>
+  <si>
+    <t>GIAT</t>
+  </si>
+  <si>
+    <t>AABH</t>
+  </si>
+  <si>
+    <t>PUBV</t>
+  </si>
+  <si>
+    <t>V4AQ</t>
+  </si>
+  <si>
+    <t>ZAAR</t>
+  </si>
+  <si>
+    <t>ZABU</t>
+  </si>
+  <si>
+    <t>AABI</t>
+  </si>
+  <si>
+    <t>DEBH</t>
+  </si>
+  <si>
+    <t>ZAAP</t>
+  </si>
+  <si>
+    <t>GIAP</t>
+  </si>
+  <si>
+    <t>ZAAQ</t>
+  </si>
+  <si>
+    <t>GIAW</t>
+  </si>
+  <si>
+    <t>JMBW</t>
+  </si>
+  <si>
+    <t>4EAU</t>
+  </si>
+  <si>
+    <t>PUAX</t>
+  </si>
+  <si>
+    <t>AAAV</t>
+  </si>
+  <si>
+    <t>V4BJ</t>
+  </si>
+  <si>
+    <t>GIBJ</t>
+  </si>
+  <si>
+    <t>SYAX</t>
+  </si>
+  <si>
+    <t>DEAV</t>
+  </si>
+  <si>
+    <t>GIAU</t>
+  </si>
+  <si>
+    <t>ZABI</t>
+  </si>
+  <si>
+    <t>GIAV</t>
+  </si>
+  <si>
+    <t>AABW</t>
+  </si>
+  <si>
+    <t>MQAK</t>
+  </si>
+  <si>
+    <t>ZAAI</t>
+  </si>
+  <si>
+    <t>4EAI</t>
+  </si>
+  <si>
+    <t>AAAJ</t>
+  </si>
+  <si>
+    <t>SYBE</t>
+  </si>
+  <si>
+    <t>ZAAH</t>
+  </si>
+  <si>
+    <t>4EAH</t>
+  </si>
+  <si>
+    <t>AABE</t>
+  </si>
+  <si>
+    <t>V4BS</t>
+  </si>
+  <si>
+    <t>DEBE</t>
+  </si>
+  <si>
+    <t>AAAI</t>
+  </si>
+  <si>
+    <t>MQBS</t>
+  </si>
+  <si>
+    <t>AAAH</t>
+  </si>
+  <si>
+    <t>MQA2</t>
+  </si>
+  <si>
+    <t>GIBX</t>
+  </si>
+  <si>
+    <t>MQBK</t>
+  </si>
+  <si>
+    <t>PUA2</t>
+  </si>
+  <si>
+    <t>PUBX</t>
+  </si>
+  <si>
+    <t>MQBL</t>
+  </si>
+  <si>
+    <t>PUBK</t>
+  </si>
+  <si>
+    <t>SYA2</t>
+  </si>
+  <si>
+    <t>AAA4</t>
+  </si>
+  <si>
+    <t>SYAZ</t>
+  </si>
+  <si>
+    <t>4EBK</t>
+  </si>
+  <si>
+    <t>SYAY</t>
+  </si>
+  <si>
+    <t>4EBT</t>
+  </si>
+  <si>
+    <t>MQBF</t>
+  </si>
+  <si>
+    <t>DEAM</t>
+  </si>
+  <si>
+    <t>JMAN</t>
+  </si>
+  <si>
+    <t>ZAAO</t>
+  </si>
+  <si>
+    <t>MQAL</t>
+  </si>
+  <si>
+    <t>MQAN</t>
+  </si>
+  <si>
+    <t>ZABF</t>
+  </si>
+  <si>
+    <t>GIAM</t>
+  </si>
+  <si>
+    <t>JMAM</t>
+  </si>
+  <si>
+    <t>JMBG</t>
+  </si>
+  <si>
+    <t>SYBT</t>
+  </si>
+  <si>
+    <t>MQAM</t>
   </si>
 </sst>
 </file>
@@ -1964,7 +2156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1984,6 +2176,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2168,9 +2372,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA56909D-E10B-4E85-8C3F-C321D59E0A00}" name="dmps_card" displayName="dmps_card" ref="A1:I460" totalsRowShown="0" headerRowDxfId="10" dataDxfId="0">
-  <autoFilter ref="A1:I460" xr:uid="{138F528C-F1C3-41F3-A4FB-0C2CC95E5F27}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:I429">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EA56909D-E10B-4E85-8C3F-C321D59E0A00}" name="dmps_card" displayName="dmps_card" ref="A1:I460" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10">
+  <autoFilter ref="A1:I460" xr:uid="{138F528C-F1C3-41F3-A4FB-0C2CC95E5F27}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="呪文"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I432">
     <sortCondition ref="G1:G460"/>
   </sortState>
   <tableColumns count="9">
@@ -2488,7 +2698,7 @@
   <dimension ref="A1:I460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2503,7 +2713,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>525</v>
       </c>
@@ -2532,7 +2742,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -2559,7 +2769,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -2586,7 +2796,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
@@ -2613,8 +2823,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>604</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2640,7 +2852,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>4</v>
@@ -2667,7 +2879,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>5</v>
@@ -2694,7 +2906,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>6</v>
@@ -2721,7 +2933,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>591</v>
       </c>
@@ -2750,7 +2962,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>586</v>
       </c>
@@ -2779,7 +2991,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>562</v>
       </c>
@@ -2808,7 +3020,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
@@ -2835,7 +3047,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -2862,8 +3074,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>606</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
@@ -2889,8 +3103,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>605</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
@@ -2916,7 +3132,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -2943,7 +3159,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>14</v>
@@ -2970,7 +3186,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>15</v>
@@ -2997,7 +3213,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>16</v>
@@ -3024,7 +3240,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>17</v>
@@ -3051,7 +3267,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>18</v>
@@ -3078,7 +3294,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="22" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>19</v>
@@ -3134,7 +3350,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>563</v>
       </c>
@@ -3163,7 +3379,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>22</v>
@@ -3190,7 +3406,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>23</v>
@@ -3217,7 +3433,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>24</v>
@@ -3244,7 +3460,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>25</v>
@@ -3271,7 +3487,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>564</v>
       </c>
@@ -3300,8 +3516,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="30" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="3"/>
+    <row r="30" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
+        <v>607</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
@@ -3327,8 +3545,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="31" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="3"/>
+    <row r="31" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
+        <v>608</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
@@ -3354,7 +3574,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="32" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>29</v>
@@ -3381,7 +3601,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="33" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -3408,7 +3628,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>31</v>
@@ -3435,7 +3655,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="35" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>32</v>
@@ -3462,7 +3682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="36" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>33</v>
@@ -3489,7 +3709,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="37" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>34</v>
@@ -3516,7 +3736,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="38" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>35</v>
@@ -3543,7 +3763,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="39" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3" t="s">
         <v>36</v>
@@ -3599,7 +3819,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>566</v>
       </c>
@@ -3628,7 +3848,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="42" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3" t="s">
         <v>39</v>
@@ -3655,7 +3875,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>40</v>
@@ -3682,7 +3902,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3" t="s">
         <v>41</v>
@@ -3709,8 +3929,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="3"/>
+    <row r="45" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
+        <v>611</v>
+      </c>
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
@@ -3736,8 +3958,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="3"/>
+    <row r="46" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>612</v>
+      </c>
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
@@ -3763,8 +3987,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="3"/>
+    <row r="47" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>610</v>
+      </c>
       <c r="B47" s="3" t="s">
         <v>44</v>
       </c>
@@ -3790,8 +4016,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="3"/>
+    <row r="48" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>609</v>
+      </c>
       <c r="B48" s="3" t="s">
         <v>45</v>
       </c>
@@ -3817,7 +4045,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>567</v>
       </c>
@@ -3846,7 +4074,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3" t="s">
         <v>47</v>
@@ -3873,7 +4101,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3" t="s">
         <v>48</v>
@@ -3900,7 +4128,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
         <v>49</v>
@@ -3927,7 +4155,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
         <v>50</v>
@@ -3954,7 +4182,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="54" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
         <v>51</v>
@@ -3981,7 +4209,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="55" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
         <v>52</v>
@@ -4008,7 +4236,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>569</v>
       </c>
@@ -4037,7 +4265,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="57" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
         <v>54</v>
@@ -4064,7 +4292,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -4091,7 +4319,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="59" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
         <v>56</v>
@@ -4118,7 +4346,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="60" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>57</v>
@@ -4145,7 +4373,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
         <v>58</v>
@@ -4172,7 +4400,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>59</v>
@@ -4199,7 +4427,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
         <v>60</v>
@@ -4226,8 +4454,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="3"/>
+    <row r="64" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>613</v>
+      </c>
       <c r="B64" s="3" t="s">
         <v>61</v>
       </c>
@@ -4253,7 +4483,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="65" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>62</v>
@@ -4280,7 +4510,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="66" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>63</v>
@@ -4307,7 +4537,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="67" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>64</v>
@@ -4334,7 +4564,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>65</v>
@@ -4361,7 +4591,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>66</v>
@@ -4388,7 +4618,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>571</v>
       </c>
@@ -4417,7 +4647,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>570</v>
       </c>
@@ -4446,7 +4676,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="72" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>69</v>
@@ -4473,7 +4703,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="73" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>70</v>
@@ -4500,8 +4730,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="74" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="3"/>
+    <row r="74" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
+        <v>614</v>
+      </c>
       <c r="B74" s="3" t="s">
         <v>71</v>
       </c>
@@ -4527,7 +4759,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>72</v>
@@ -4554,7 +4786,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="76" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>73</v>
@@ -4581,7 +4813,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="77" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>74</v>
@@ -4608,7 +4840,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="78" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>75</v>
@@ -4635,7 +4867,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>76</v>
@@ -4662,7 +4894,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
         <v>572</v>
       </c>
@@ -4691,7 +4923,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>78</v>
@@ -4718,7 +4950,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="82" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>79</v>
@@ -4745,7 +4977,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="83" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>80</v>
@@ -4772,7 +5004,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="84" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>81</v>
@@ -4799,7 +5031,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="85" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>82</v>
@@ -4826,10 +5058,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="86" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="3"/>
+    <row r="86" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="5" t="s">
+        <v>589</v>
+      </c>
       <c r="B86" s="3" t="s">
-        <v>83</v>
+        <v>601</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>466</v>
@@ -4838,10 +5072,10 @@
         <v>459</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F86" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>461</v>
@@ -4853,10 +5087,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="87" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="3"/>
+    <row r="87" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="5" t="s">
+        <v>616</v>
+      </c>
       <c r="B87" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>466</v>
@@ -4865,7 +5101,7 @@
         <v>459</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F87" s="3">
         <v>8</v>
@@ -4880,7 +5116,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="88" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>85</v>
@@ -4907,37 +5143,41 @@
         <v>462</v>
       </c>
     </row>
-    <row r="89" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="3"/>
+    <row r="89" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="7" t="s">
+        <v>615</v>
+      </c>
       <c r="B89" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="F89" s="3">
+        <v>8</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="F89" s="3">
-        <v>1</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>466</v>
@@ -4961,7 +5201,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="91" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>88</v>
@@ -4988,7 +5228,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="92" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>89</v>
@@ -5015,7 +5255,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="93" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>90</v>
@@ -5042,7 +5282,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="94" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>91</v>
@@ -5069,7 +5309,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="95" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
         <v>592</v>
       </c>
@@ -5098,7 +5338,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
         <v>573</v>
       </c>
@@ -5127,7 +5367,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
         <v>574</v>
       </c>
@@ -5156,7 +5396,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
         <v>575</v>
       </c>
@@ -5185,7 +5425,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
         <v>576</v>
       </c>
@@ -5214,7 +5454,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="100" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>96</v>
@@ -5241,7 +5481,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="101" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>97</v>
@@ -5268,7 +5508,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="102" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>98</v>
@@ -5295,7 +5535,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="103" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>99</v>
@@ -5322,10 +5562,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="104" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A104" s="3"/>
+    <row r="104" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="5" t="s">
+        <v>618</v>
+      </c>
       <c r="B104" s="3" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>466</v>
@@ -5334,10 +5576,10 @@
         <v>459</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>480</v>
@@ -5349,10 +5591,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="105" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A105" s="3"/>
+    <row r="105" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="B105" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>466</v>
@@ -5361,7 +5605,7 @@
         <v>459</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -5376,7 +5620,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="106" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>102</v>
@@ -5403,7 +5647,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="107" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>103</v>
@@ -5430,7 +5674,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="108" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>104</v>
@@ -5457,7 +5701,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="109" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>105</v>
@@ -5484,7 +5728,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>106</v>
@@ -5511,7 +5755,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>107</v>
@@ -5538,7 +5782,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="112" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>108</v>
@@ -5565,7 +5809,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>109</v>
@@ -5592,7 +5836,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="114" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>110</v>
@@ -5619,7 +5863,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>111</v>
@@ -5646,7 +5890,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
         <v>577</v>
       </c>
@@ -5677,10 +5921,10 @@
     </row>
     <row r="117" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>466</v>
@@ -5689,10 +5933,10 @@
         <v>459</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F117" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>480</v>
@@ -5704,7 +5948,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="118" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>114</v>
@@ -5731,7 +5975,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="119" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
         <v>115</v>
@@ -5758,7 +6002,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="120" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
         <v>116</v>
@@ -5785,7 +6029,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
         <v>117</v>
@@ -5812,10 +6056,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="122" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="3"/>
+    <row r="122" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="7" t="s">
+        <v>579</v>
+      </c>
       <c r="B122" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>466</v>
@@ -5824,7 +6070,7 @@
         <v>459</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F122" s="3">
         <v>3</v>
@@ -5839,10 +6085,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="123" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="3"/>
+    <row r="123" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="5" t="s">
+        <v>622</v>
+      </c>
       <c r="B123" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>466</v>
@@ -5851,7 +6099,7 @@
         <v>459</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F123" s="3">
         <v>3</v>
@@ -5866,7 +6114,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
         <v>578</v>
       </c>
@@ -5895,7 +6143,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="125" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
         <v>121</v>
@@ -5922,7 +6170,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="126" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
         <v>122</v>
@@ -5949,7 +6197,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="127" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
         <v>123</v>
@@ -5976,7 +6224,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="128" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>124</v>
@@ -6003,7 +6251,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="129" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>125</v>
@@ -6030,7 +6278,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
         <v>580</v>
       </c>
@@ -6059,7 +6307,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
         <v>581</v>
       </c>
@@ -6088,7 +6336,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="6" t="s">
         <v>582</v>
       </c>
@@ -6117,7 +6365,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="133" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>129</v>
@@ -6144,7 +6392,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="134" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>130</v>
@@ -6171,7 +6419,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="135" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>131</v>
@@ -6198,10 +6446,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="136" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="3"/>
+    <row r="136" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="5" t="s">
+        <v>621</v>
+      </c>
       <c r="B136" s="3" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>466</v>
@@ -6210,10 +6460,10 @@
         <v>459</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F136" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>480</v>
@@ -6225,10 +6475,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="137" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="3"/>
+    <row r="137" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="5" t="s">
+        <v>623</v>
+      </c>
       <c r="B137" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>466</v>
@@ -6237,7 +6489,7 @@
         <v>459</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F137" s="3">
         <v>4</v>
@@ -6252,7 +6504,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="138" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>134</v>
@@ -6279,7 +6531,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>135</v>
@@ -6306,7 +6558,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>136</v>
@@ -6333,7 +6585,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="141" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>137</v>
@@ -6360,7 +6612,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="142" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>138</v>
@@ -6387,7 +6639,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="143" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>139</v>
@@ -6414,7 +6666,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="144" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>140</v>
@@ -6441,7 +6693,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="145" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>141</v>
@@ -6468,10 +6720,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="146" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A146" s="3"/>
+    <row r="146" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="5" t="s">
+        <v>624</v>
+      </c>
       <c r="B146" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>466</v>
@@ -6480,10 +6734,10 @@
         <v>459</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F146" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>480</v>
@@ -6497,10 +6751,10 @@
     </row>
     <row r="147" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>466</v>
@@ -6509,7 +6763,7 @@
         <v>459</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F147" s="3">
         <v>5</v>
@@ -6524,7 +6778,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="148" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>144</v>
@@ -6551,7 +6805,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="149" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
         <v>145</v>
@@ -6578,7 +6832,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="150" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>146</v>
@@ -6605,7 +6859,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
         <v>584</v>
       </c>
@@ -6634,7 +6888,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="152" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>148</v>
@@ -6661,7 +6915,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="153" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>149</v>
@@ -6688,7 +6942,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="154" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>150</v>
@@ -6715,7 +6969,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>151</v>
@@ -6742,7 +6996,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="156" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>152</v>
@@ -6769,7 +7023,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="157" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>153</v>
@@ -6796,10 +7050,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="158" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="3"/>
+    <row r="158" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="7" t="s">
+        <v>583</v>
+      </c>
       <c r="B158" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>466</v>
@@ -6808,10 +7064,10 @@
         <v>459</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F158" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>480</v>
@@ -6823,10 +7079,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="159" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="3"/>
+    <row r="159" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="5" t="s">
+        <v>627</v>
+      </c>
       <c r="B159" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>466</v>
@@ -6835,7 +7093,7 @@
         <v>459</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F159" s="3">
         <v>6</v>
@@ -6850,7 +7108,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="160" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>156</v>
@@ -6877,7 +7135,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="161" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>157</v>
@@ -6904,7 +7162,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="162" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>158</v>
@@ -6931,7 +7189,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>159</v>
@@ -6958,7 +7216,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="164" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>160</v>
@@ -6985,7 +7243,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="165" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>161</v>
@@ -7012,7 +7270,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="166" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>162</v>
@@ -7039,7 +7297,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="167" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>163</v>
@@ -7066,7 +7324,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="168" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>164</v>
@@ -7093,10 +7351,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="3"/>
+    <row r="169" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A169" s="5" t="s">
+        <v>626</v>
+      </c>
       <c r="B169" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>466</v>
@@ -7105,10 +7365,10 @@
         <v>459</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F169" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>480</v>
@@ -7120,10 +7380,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="170" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="3"/>
+    <row r="170" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="7" t="s">
+        <v>588</v>
+      </c>
       <c r="B170" s="3" t="s">
-        <v>166</v>
+        <v>602</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>466</v>
@@ -7132,10 +7394,10 @@
         <v>459</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F170" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>480</v>
@@ -7147,7 +7409,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="171" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>167</v>
@@ -7174,7 +7436,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="172" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>168</v>
@@ -7201,7 +7463,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>169</v>
@@ -7228,7 +7490,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>170</v>
@@ -7255,7 +7517,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A175" s="4" t="s">
         <v>550</v>
       </c>
@@ -7284,10 +7546,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="3"/>
+    <row r="176" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="5" t="s">
+        <v>629</v>
+      </c>
       <c r="B176" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>466</v>
@@ -7296,13 +7560,13 @@
         <v>459</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F176" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H176" s="3" t="s">
         <v>459</v>
@@ -7311,7 +7575,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="177" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>173</v>
@@ -7338,7 +7602,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>174</v>
@@ -7365,7 +7629,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="179" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="3"/>
       <c r="B179" s="3" t="s">
         <v>175</v>
@@ -7392,7 +7656,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="180" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>176</v>
@@ -7420,11 +7684,11 @@
       </c>
     </row>
     <row r="181" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="4" t="s">
-        <v>553</v>
+      <c r="A181" s="5" t="s">
+        <v>628</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>466</v>
@@ -7433,13 +7697,13 @@
         <v>459</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F181" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>459</v>
@@ -7448,7 +7712,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A182" s="4" t="s">
         <v>551</v>
       </c>
@@ -7477,7 +7741,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="183" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A183" s="3"/>
       <c r="B183" s="3" t="s">
         <v>179</v>
@@ -7504,7 +7768,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="184" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
         <v>180</v>
@@ -7531,7 +7795,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="185" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>181</v>
@@ -7558,7 +7822,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="186" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A186" s="3"/>
       <c r="B186" s="3" t="s">
         <v>182</v>
@@ -7585,10 +7849,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="187" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A187" s="3"/>
+    <row r="187" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A187" s="5" t="s">
+        <v>630</v>
+      </c>
       <c r="B187" s="3" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>466</v>
@@ -7597,10 +7863,10 @@
         <v>459</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F187" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G187" s="3" t="s">
         <v>491</v>
@@ -7612,7 +7878,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A188" s="4" t="s">
         <v>552</v>
       </c>
@@ -7641,7 +7907,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="189" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A189" s="3"/>
       <c r="B189" s="3" t="s">
         <v>185</v>
@@ -7668,7 +7934,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>186</v>
@@ -7695,7 +7961,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="191" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>187</v>
@@ -7722,7 +7988,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="192" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>188</v>
@@ -7749,7 +8015,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="193" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A193" s="3"/>
       <c r="B193" s="3" t="s">
         <v>189</v>
@@ -7776,7 +8042,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="194" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A194" s="3"/>
       <c r="B194" s="3" t="s">
         <v>190</v>
@@ -7803,7 +8069,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A195" s="3"/>
       <c r="B195" s="3" t="s">
         <v>191</v>
@@ -7830,7 +8096,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A196" s="4" t="s">
         <v>554</v>
       </c>
@@ -7859,7 +8125,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="197" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>193</v>
@@ -7886,7 +8152,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="198" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>194</v>
@@ -7913,7 +8179,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="199" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>195</v>
@@ -7940,7 +8206,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="200" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
         <v>196</v>
@@ -7967,7 +8233,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="201" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>197</v>
@@ -7994,7 +8260,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>198</v>
@@ -8021,10 +8287,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="203" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="3"/>
+    <row r="203" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="8" t="s">
+        <v>553</v>
+      </c>
       <c r="B203" s="3" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>466</v>
@@ -8033,10 +8301,10 @@
         <v>459</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F203" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G203" s="3" t="s">
         <v>491</v>
@@ -8048,10 +8316,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="204" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="3"/>
+    <row r="204" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="5" t="s">
+        <v>631</v>
+      </c>
       <c r="B204" s="3" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>466</v>
@@ -8063,7 +8333,7 @@
         <v>465</v>
       </c>
       <c r="F204" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G204" s="3" t="s">
         <v>491</v>
@@ -8075,10 +8345,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="205" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="3"/>
+    <row r="205" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="5" t="s">
+        <v>632</v>
+      </c>
       <c r="B205" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>466</v>
@@ -8087,7 +8359,7 @@
         <v>459</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="F205" s="3">
         <v>3</v>
@@ -8102,7 +8374,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="206" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A206" s="3"/>
       <c r="B206" s="3" t="s">
         <v>202</v>
@@ -8129,7 +8401,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="207" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A207" s="3"/>
       <c r="B207" s="3" t="s">
         <v>203</v>
@@ -8156,7 +8428,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="208" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>204</v>
@@ -8183,7 +8455,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="209" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>205</v>
@@ -8210,7 +8482,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="210" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>206</v>
@@ -8237,7 +8509,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="211" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>207</v>
@@ -8265,11 +8537,11 @@
       </c>
     </row>
     <row r="212" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A212" s="4" t="s">
-        <v>558</v>
+      <c r="A212" s="5" t="s">
+        <v>633</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>466</v>
@@ -8278,10 +8550,10 @@
         <v>459</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F212" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G212" s="3" t="s">
         <v>491</v>
@@ -8293,7 +8565,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A213" s="4" t="s">
         <v>556</v>
       </c>
@@ -8322,7 +8594,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A214" s="4" t="s">
         <v>557</v>
       </c>
@@ -8351,7 +8623,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="215" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>211</v>
@@ -8378,7 +8650,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="216" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>212</v>
@@ -8405,7 +8677,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="217" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>213</v>
@@ -8432,10 +8704,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="218" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A218" s="3"/>
+    <row r="218" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="5" t="s">
+        <v>634</v>
+      </c>
       <c r="B218" s="3" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>466</v>
@@ -8444,10 +8718,10 @@
         <v>459</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F218" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G218" s="3" t="s">
         <v>491</v>
@@ -8459,10 +8733,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="219" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A219" s="3"/>
+    <row r="219" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="8" t="s">
+        <v>558</v>
+      </c>
       <c r="B219" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>466</v>
@@ -8471,7 +8747,7 @@
         <v>459</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F219" s="3">
         <v>4</v>
@@ -8486,10 +8762,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="220" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A220" s="3"/>
+    <row r="220" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A220" s="5" t="s">
+        <v>637</v>
+      </c>
       <c r="B220" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>466</v>
@@ -8498,7 +8776,7 @@
         <v>459</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F220" s="3">
         <v>4</v>
@@ -8513,10 +8791,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="221" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A221" s="3"/>
+    <row r="221" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A221" s="5" t="s">
+        <v>639</v>
+      </c>
       <c r="B221" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>466</v>
@@ -8525,7 +8805,7 @@
         <v>459</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F221" s="3">
         <v>4</v>
@@ -8540,7 +8820,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A222" s="4" t="s">
         <v>555</v>
       </c>
@@ -8569,10 +8849,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="223" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A223" s="3"/>
+    <row r="223" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A223" s="5" t="s">
+        <v>635</v>
+      </c>
       <c r="B223" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>466</v>
@@ -8581,7 +8863,7 @@
         <v>459</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F223" s="3">
         <v>4</v>
@@ -8596,7 +8878,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="224" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>220</v>
@@ -8623,7 +8905,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="225" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A225" s="3"/>
       <c r="B225" s="3" t="s">
         <v>221</v>
@@ -8650,7 +8932,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="226" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>222</v>
@@ -8677,7 +8959,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="227" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
         <v>223</v>
@@ -8704,7 +8986,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="228" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
         <v>224</v>
@@ -8731,7 +9013,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="229" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
         <v>225</v>
@@ -8758,7 +9040,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="230" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>226</v>
@@ -8785,7 +9067,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="231" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>227</v>
@@ -8812,7 +9094,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>228</v>
@@ -8839,7 +9121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="233" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A233" s="3"/>
       <c r="B233" s="3" t="s">
         <v>229</v>
@@ -8866,7 +9148,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="234" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>230</v>
@@ -8893,7 +9175,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="235" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
         <v>231</v>
@@ -8920,7 +9202,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="236" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A236" s="3"/>
       <c r="B236" s="3" t="s">
         <v>232</v>
@@ -8947,7 +9229,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="237" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
         <v>233</v>
@@ -8974,10 +9256,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="238" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A238" s="3"/>
+    <row r="238" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="5" t="s">
+        <v>636</v>
+      </c>
       <c r="B238" s="3" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>466</v>
@@ -8989,7 +9273,7 @@
         <v>472</v>
       </c>
       <c r="F238" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G238" s="3" t="s">
         <v>491</v>
@@ -9001,10 +9285,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="239" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A239" s="3"/>
+    <row r="239" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A239" s="5" t="s">
+        <v>638</v>
+      </c>
       <c r="B239" s="3" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>466</v>
@@ -9016,7 +9302,7 @@
         <v>465</v>
       </c>
       <c r="F239" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>491</v>
@@ -9028,7 +9314,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="240" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>236</v>
@@ -9055,7 +9341,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="241" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A241" s="3"/>
       <c r="B241" s="3" t="s">
         <v>237</v>
@@ -9082,7 +9368,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="242" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>238</v>
@@ -9109,7 +9395,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="243" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A243" s="3"/>
       <c r="B243" s="3" t="s">
         <v>239</v>
@@ -9136,7 +9422,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="244" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>240</v>
@@ -9163,7 +9449,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A245" s="4" t="s">
         <v>559</v>
       </c>
@@ -9192,7 +9478,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A246" s="4" t="s">
         <v>560</v>
       </c>
@@ -9221,7 +9507,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="247" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>243</v>
@@ -9248,7 +9534,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="248" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>244</v>
@@ -9275,10 +9561,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="249" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="3"/>
+    <row r="249" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A249" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="B249" s="3" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>466</v>
@@ -9287,10 +9575,10 @@
         <v>459</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F249" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G249" s="3" t="s">
         <v>491</v>
@@ -9302,7 +9590,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="250" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>246</v>
@@ -9329,7 +9617,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="251" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>247</v>
@@ -9356,7 +9644,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="252" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>248</v>
@@ -9383,7 +9671,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A253" s="4" t="s">
         <v>561</v>
       </c>
@@ -9412,7 +9700,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="254" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>250</v>
@@ -9439,7 +9727,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="255" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>251</v>
@@ -9466,7 +9754,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="256" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>252</v>
@@ -9493,7 +9781,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="257" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>253</v>
@@ -9520,7 +9808,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="258" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>254</v>
@@ -9547,7 +9835,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="259" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>255</v>
@@ -9574,7 +9862,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="260" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>256</v>
@@ -9601,7 +9889,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="261" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A261" s="3"/>
       <c r="B261" s="3" t="s">
         <v>257</v>
@@ -9628,7 +9916,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="262" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>258</v>
@@ -9655,7 +9943,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="263" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
         <v>259</v>
@@ -9682,7 +9970,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="264" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
         <v>260</v>
@@ -9709,7 +9997,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="265" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
         <v>261</v>
@@ -9736,7 +10024,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="266" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
         <v>262</v>
@@ -9763,7 +10051,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="267" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
         <v>263</v>
@@ -9790,7 +10078,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="268" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
         <v>264</v>
@@ -9817,12 +10105,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="269" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
-        <v>593</v>
+        <v>641</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>598</v>
+        <v>235</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>466</v>
@@ -9831,13 +10119,13 @@
         <v>459</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F269" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H269" s="3" t="s">
         <v>459</v>
@@ -9846,12 +10134,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A270" s="2" t="s">
-        <v>539</v>
+    <row r="270" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A270" s="5" t="s">
+        <v>642</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>466</v>
@@ -9860,13 +10148,13 @@
         <v>459</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="F270" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H270" s="3" t="s">
         <v>459</v>
@@ -9875,7 +10163,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="271" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
         <v>266</v>
@@ -9902,10 +10190,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="272" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A272" s="3"/>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A272" s="7" t="s">
+        <v>590</v>
+      </c>
       <c r="B272" s="3" t="s">
-        <v>267</v>
+        <v>600</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>466</v>
@@ -9914,13 +10204,13 @@
         <v>459</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F272" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="H272" s="3" t="s">
         <v>459</v>
@@ -9929,7 +10219,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A273" s="2" t="s">
         <v>538</v>
       </c>
@@ -9958,7 +10248,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="274" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
         <v>269</v>
@@ -9985,7 +10275,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="275" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A275" s="3"/>
       <c r="B275" s="3" t="s">
         <v>270</v>
@@ -10012,7 +10302,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="276" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
         <v>271</v>
@@ -10039,7 +10329,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="277" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A277" s="3"/>
       <c r="B277" s="3" t="s">
         <v>272</v>
@@ -10066,7 +10356,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A278" s="2" t="s">
         <v>541</v>
       </c>
@@ -10095,7 +10385,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A279" s="2" t="s">
         <v>540</v>
       </c>
@@ -10124,7 +10414,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A280" s="2" t="s">
         <v>542</v>
       </c>
@@ -10153,7 +10443,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="281" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A281" s="3"/>
       <c r="B281" s="3" t="s">
         <v>276</v>
@@ -10180,7 +10470,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="282" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A282" s="3"/>
       <c r="B282" s="3" t="s">
         <v>277</v>
@@ -10207,10 +10497,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="283" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A283" s="3"/>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A283" s="7" t="s">
+        <v>593</v>
+      </c>
       <c r="B283" s="3" t="s">
-        <v>278</v>
+        <v>598</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>466</v>
@@ -10219,10 +10511,10 @@
         <v>459</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="F283" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G283" s="3" t="s">
         <v>500</v>
@@ -10234,10 +10526,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="284" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A284" s="3"/>
+    <row r="284" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A284" s="10" t="s">
+        <v>539</v>
+      </c>
       <c r="B284" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>466</v>
@@ -10246,10 +10540,10 @@
         <v>459</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F284" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G284" s="3" t="s">
         <v>500</v>
@@ -10261,10 +10555,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="285" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A285" s="3"/>
+    <row r="285" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A285" s="5" t="s">
+        <v>643</v>
+      </c>
       <c r="B285" s="3" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>466</v>
@@ -10276,7 +10572,7 @@
         <v>465</v>
       </c>
       <c r="F285" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G285" s="3" t="s">
         <v>500</v>
@@ -10288,10 +10584,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="286" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A286" s="3"/>
+    <row r="286" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A286" s="5" t="s">
+        <v>648</v>
+      </c>
       <c r="B286" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>466</v>
@@ -10300,7 +10598,7 @@
         <v>459</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F286" s="3">
         <v>3</v>
@@ -10315,10 +10613,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="287" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A287" s="3"/>
+    <row r="287" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="5" t="s">
+        <v>645</v>
+      </c>
       <c r="B287" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>466</v>
@@ -10327,7 +10627,7 @@
         <v>459</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="F287" s="3">
         <v>3</v>
@@ -10342,7 +10642,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="288" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A288" s="3"/>
       <c r="B288" s="3" t="s">
         <v>283</v>
@@ -10369,7 +10669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A289" s="3"/>
       <c r="B289" s="3" t="s">
         <v>284</v>
@@ -10396,7 +10696,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="290" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A290" s="3"/>
       <c r="B290" s="3" t="s">
         <v>285</v>
@@ -10423,7 +10723,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="291" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A291" s="3"/>
       <c r="B291" s="3" t="s">
         <v>286</v>
@@ -10450,7 +10750,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="292" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A292" s="3"/>
       <c r="B292" s="3" t="s">
         <v>287</v>
@@ -10477,7 +10777,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="293" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A293" s="3"/>
       <c r="B293" s="3" t="s">
         <v>288</v>
@@ -10504,7 +10804,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="294" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A294" s="3"/>
       <c r="B294" s="3" t="s">
         <v>289</v>
@@ -10531,7 +10831,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="295" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A295" s="3"/>
       <c r="B295" s="3" t="s">
         <v>290</v>
@@ -10558,7 +10858,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="296" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A296" s="3"/>
       <c r="B296" s="3" t="s">
         <v>291</v>
@@ -10585,7 +10885,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A297" s="2" t="s">
         <v>543</v>
       </c>
@@ -10614,7 +10914,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="298" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A298" s="3"/>
       <c r="B298" s="3" t="s">
         <v>293</v>
@@ -10641,7 +10941,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="299" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A299" s="3"/>
       <c r="B299" s="3" t="s">
         <v>294</v>
@@ -10668,7 +10968,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="300" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A300" s="3"/>
       <c r="B300" s="3" t="s">
         <v>295</v>
@@ -10695,7 +10995,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="301" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A301" s="3"/>
       <c r="B301" s="3" t="s">
         <v>296</v>
@@ -10722,7 +11022,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="302" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A302" s="3"/>
       <c r="B302" s="3" t="s">
         <v>297</v>
@@ -10749,7 +11049,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="303" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A303" s="3"/>
       <c r="B303" s="3" t="s">
         <v>298</v>
@@ -10776,10 +11076,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="304" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A304" s="3"/>
+    <row r="304" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A304" s="5" t="s">
+        <v>646</v>
+      </c>
       <c r="B304" s="3" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>466</v>
@@ -10788,10 +11090,10 @@
         <v>459</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F304" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G304" s="3" t="s">
         <v>500</v>
@@ -10803,10 +11105,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="305" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A305" s="3"/>
+    <row r="305" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A305" s="5" t="s">
+        <v>644</v>
+      </c>
       <c r="B305" s="3" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>466</v>
@@ -10815,10 +11119,10 @@
         <v>459</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="F305" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G305" s="3" t="s">
         <v>500</v>
@@ -10830,10 +11134,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="306" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A306" s="3"/>
+    <row r="306" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A306" s="5" t="s">
+        <v>647</v>
+      </c>
       <c r="B306" s="3" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>466</v>
@@ -10845,7 +11151,7 @@
         <v>465</v>
       </c>
       <c r="F306" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G306" s="3" t="s">
         <v>500</v>
@@ -10857,12 +11163,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A307" s="2" t="s">
-        <v>544</v>
+    <row r="307" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A307" s="5" t="s">
+        <v>649</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>466</v>
@@ -10871,7 +11177,7 @@
         <v>459</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F307" s="3">
         <v>4</v>
@@ -10886,7 +11192,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="308" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A308" s="3"/>
       <c r="B308" s="3" t="s">
         <v>303</v>
@@ -10913,7 +11219,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="309" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A309" s="3"/>
       <c r="B309" s="3" t="s">
         <v>304</v>
@@ -10940,7 +11246,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="310" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A310" s="3"/>
       <c r="B310" s="3" t="s">
         <v>305</v>
@@ -10967,7 +11273,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="311" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A311" s="3"/>
       <c r="B311" s="3" t="s">
         <v>306</v>
@@ -10994,7 +11300,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="312" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A312" s="3"/>
       <c r="B312" s="3" t="s">
         <v>307</v>
@@ -11021,7 +11327,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="313" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A313" s="3"/>
       <c r="B313" s="3" t="s">
         <v>308</v>
@@ -11048,7 +11354,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="314" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A314" s="3"/>
       <c r="B314" s="3" t="s">
         <v>309</v>
@@ -11075,7 +11381,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="315" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A315" s="3"/>
       <c r="B315" s="3" t="s">
         <v>310</v>
@@ -11102,7 +11408,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A316" s="2" t="s">
         <v>545</v>
       </c>
@@ -11131,7 +11437,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A317" s="2" t="s">
         <v>546</v>
       </c>
@@ -11160,7 +11466,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A318" s="2" t="s">
         <v>547</v>
       </c>
@@ -11189,7 +11495,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="319" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A319" s="3"/>
       <c r="B319" s="3" t="s">
         <v>314</v>
@@ -11216,7 +11522,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="320" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A320" s="3"/>
       <c r="B320" s="3" t="s">
         <v>315</v>
@@ -11243,7 +11549,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="321" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A321" s="3"/>
       <c r="B321" s="3" t="s">
         <v>316</v>
@@ -11270,7 +11576,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="322" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A322" s="3"/>
       <c r="B322" s="3" t="s">
         <v>317</v>
@@ -11297,10 +11603,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="323" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="3"/>
+    <row r="323" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="5" t="s">
+        <v>651</v>
+      </c>
       <c r="B323" s="3" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>466</v>
@@ -11309,10 +11617,10 @@
         <v>459</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="F323" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G323" s="3" t="s">
         <v>500</v>
@@ -11324,10 +11632,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="324" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A324" s="3"/>
+    <row r="324" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A324" s="5" t="s">
+        <v>650</v>
+      </c>
       <c r="B324" s="3" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>466</v>
@@ -11339,7 +11649,7 @@
         <v>465</v>
       </c>
       <c r="F324" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G324" s="3" t="s">
         <v>500</v>
@@ -11351,7 +11661,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="325" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A325" s="3"/>
       <c r="B325" s="3" t="s">
         <v>320</v>
@@ -11378,7 +11688,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="326" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A326" s="3"/>
       <c r="B326" s="3" t="s">
         <v>321</v>
@@ -11405,7 +11715,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="327" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A327" s="3"/>
       <c r="B327" s="3" t="s">
         <v>322</v>
@@ -11432,7 +11742,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="328" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A328" s="3"/>
       <c r="B328" s="3" t="s">
         <v>323</v>
@@ -11459,7 +11769,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A329" s="2" t="s">
         <v>548</v>
       </c>
@@ -11488,7 +11798,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="330" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A330" s="3"/>
       <c r="B330" s="3" t="s">
         <v>325</v>
@@ -11515,7 +11825,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="331" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A331" s="3"/>
       <c r="B331" s="3" t="s">
         <v>326</v>
@@ -11542,10 +11852,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="332" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A332" s="3"/>
+    <row r="332" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A332" s="2" t="s">
+        <v>544</v>
+      </c>
       <c r="B332" s="3" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>466</v>
@@ -11554,10 +11866,10 @@
         <v>459</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F332" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G332" s="3" t="s">
         <v>500</v>
@@ -11569,7 +11881,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="333" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A333" s="3"/>
       <c r="B333" s="3" t="s">
         <v>328</v>
@@ -11596,7 +11908,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="334" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A334" s="3"/>
       <c r="B334" s="3" t="s">
         <v>329</v>
@@ -11623,7 +11935,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="335" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A335" s="3"/>
       <c r="B335" s="3" t="s">
         <v>330</v>
@@ -11650,7 +11962,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="336" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A336" s="3"/>
       <c r="B336" s="3" t="s">
         <v>331</v>
@@ -11677,7 +11989,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="337" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A337" s="3"/>
       <c r="B337" s="3" t="s">
         <v>332</v>
@@ -11704,7 +12016,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="338" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A338" s="3"/>
       <c r="B338" s="3" t="s">
         <v>333</v>
@@ -11731,7 +12043,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A339" s="2" t="s">
         <v>549</v>
       </c>
@@ -11760,7 +12072,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="340" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A340" s="3"/>
       <c r="B340" s="3" t="s">
         <v>335</v>
@@ -11787,7 +12099,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="341" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A341" s="3"/>
       <c r="B341" s="3" t="s">
         <v>336</v>
@@ -11814,7 +12126,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="342" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A342" s="3"/>
       <c r="B342" s="3" t="s">
         <v>337</v>
@@ -11841,7 +12153,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="343" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A343" s="3"/>
       <c r="B343" s="3" t="s">
         <v>338</v>
@@ -11868,7 +12180,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="344" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A344" s="3"/>
       <c r="B344" s="3" t="s">
         <v>339</v>
@@ -11895,7 +12207,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="345" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A345" s="3"/>
       <c r="B345" s="3" t="s">
         <v>340</v>
@@ -11922,7 +12234,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="346" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A346" s="3"/>
       <c r="B346" s="3" t="s">
         <v>341</v>
@@ -11949,7 +12261,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A347" s="2" t="s">
         <v>526</v>
       </c>
@@ -11978,7 +12290,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="348" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A348" s="3"/>
       <c r="B348" s="3" t="s">
         <v>343</v>
@@ -12005,7 +12317,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="349" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A349" s="3"/>
       <c r="B349" s="3" t="s">
         <v>344</v>
@@ -12032,7 +12344,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="350" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A350" s="3"/>
       <c r="B350" s="3" t="s">
         <v>345</v>
@@ -12059,7 +12371,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A351" s="2" t="s">
         <v>527</v>
       </c>
@@ -12088,7 +12400,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="352" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A352" s="3"/>
       <c r="B352" s="3" t="s">
         <v>347</v>
@@ -12115,7 +12427,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="353" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A353" s="3"/>
       <c r="B353" s="3" t="s">
         <v>348</v>
@@ -12142,7 +12454,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="354" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A354" s="3"/>
       <c r="B354" s="3" t="s">
         <v>349</v>
@@ -12169,12 +12481,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A355" s="2" t="s">
-        <v>528</v>
+    <row r="355" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A355" s="5" t="s">
+        <v>652</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>466</v>
@@ -12183,13 +12495,13 @@
         <v>459</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F355" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G355" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H355" s="3" t="s">
         <v>459</v>
@@ -12198,10 +12510,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="356" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A356" s="3"/>
+    <row r="356" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A356" s="5" t="s">
+        <v>653</v>
+      </c>
       <c r="B356" s="3" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>466</v>
@@ -12213,10 +12527,10 @@
         <v>465</v>
       </c>
       <c r="F356" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>459</v>
@@ -12225,7 +12539,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="357" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A357" s="3"/>
       <c r="B357" s="3" t="s">
         <v>352</v>
@@ -12252,7 +12566,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="358" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A358" s="3"/>
       <c r="B358" s="3" t="s">
         <v>353</v>
@@ -12279,7 +12593,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="359" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A359" s="3"/>
       <c r="B359" s="3" t="s">
         <v>354</v>
@@ -12306,7 +12620,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A360" s="3"/>
       <c r="B360" s="3" t="s">
         <v>355</v>
@@ -12333,7 +12647,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="361" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A361" s="5" t="s">
         <v>594</v>
       </c>
@@ -12362,7 +12676,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A362" s="2" t="s">
         <v>529</v>
       </c>
@@ -12391,7 +12705,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A363" s="2" t="s">
         <v>530</v>
       </c>
@@ -12420,7 +12734,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A364" s="2" t="s">
         <v>531</v>
       </c>
@@ -12449,7 +12763,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="365" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A365" s="3"/>
       <c r="B365" s="3" t="s">
         <v>359</v>
@@ -12476,7 +12790,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="366" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A366" s="3"/>
       <c r="B366" s="3" t="s">
         <v>360</v>
@@ -12503,7 +12817,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="367" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A367" s="3"/>
       <c r="B367" s="3" t="s">
         <v>361</v>
@@ -12530,7 +12844,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="368" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A368" s="3"/>
       <c r="B368" s="3" t="s">
         <v>362</v>
@@ -12557,7 +12871,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="369" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A369" s="3"/>
       <c r="B369" s="3" t="s">
         <v>363</v>
@@ -12584,7 +12898,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="370" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A370" s="3"/>
       <c r="B370" s="3" t="s">
         <v>364</v>
@@ -12611,10 +12925,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="371" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A371" s="3"/>
+    <row r="371" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A371" s="5" t="s">
+        <v>654</v>
+      </c>
       <c r="B371" s="3" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>466</v>
@@ -12623,13 +12939,13 @@
         <v>459</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F371" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G371" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H371" s="3" t="s">
         <v>459</v>
@@ -12638,10 +12954,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="372" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A372" s="3"/>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A372" s="7" t="s">
+        <v>587</v>
+      </c>
       <c r="B372" s="3" t="s">
-        <v>366</v>
+        <v>603</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>466</v>
@@ -12650,13 +12968,13 @@
         <v>459</v>
       </c>
       <c r="E372" s="3" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F372" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="H372" s="3" t="s">
         <v>459</v>
@@ -12665,10 +12983,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="373" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A373" s="3"/>
+    <row r="373" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A373" s="10" t="s">
+        <v>528</v>
+      </c>
       <c r="B373" s="3" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>466</v>
@@ -12677,10 +12997,10 @@
         <v>459</v>
       </c>
       <c r="E373" s="3" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="F373" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G373" s="3" t="s">
         <v>511</v>
@@ -12692,10 +13012,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="374" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A374" s="3"/>
+    <row r="374" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A374" s="5" t="s">
+        <v>655</v>
+      </c>
       <c r="B374" s="3" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>466</v>
@@ -12704,10 +13026,10 @@
         <v>459</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="F374" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>511</v>
@@ -12719,7 +13041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="375" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A375" s="3"/>
       <c r="B375" s="3" t="s">
         <v>369</v>
@@ -12746,7 +13068,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="376" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A376" s="3"/>
       <c r="B376" s="3" t="s">
         <v>370</v>
@@ -12773,7 +13095,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="377" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A377" s="3"/>
       <c r="B377" s="3" t="s">
         <v>371</v>
@@ -12800,7 +13122,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="378" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A378" s="3"/>
       <c r="B378" s="3" t="s">
         <v>372</v>
@@ -12827,7 +13149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="379" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A379" s="3"/>
       <c r="B379" s="3" t="s">
         <v>373</v>
@@ -12854,7 +13176,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="380" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A380" s="3"/>
       <c r="B380" s="3" t="s">
         <v>374</v>
@@ -12881,7 +13203,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="381" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A381" s="3"/>
       <c r="B381" s="3" t="s">
         <v>375</v>
@@ -12908,7 +13230,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="382" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A382" s="3"/>
       <c r="B382" s="3" t="s">
         <v>376</v>
@@ -12935,7 +13257,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="383" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A383" s="3"/>
       <c r="B383" s="3" t="s">
         <v>377</v>
@@ -12962,7 +13284,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A384" s="2" t="s">
         <v>532</v>
       </c>
@@ -12991,12 +13313,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A385" s="2" t="s">
-        <v>534</v>
+    <row r="385" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A385" s="5" t="s">
+        <v>656</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>466</v>
@@ -13005,10 +13327,10 @@
         <v>459</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F385" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G385" s="3" t="s">
         <v>511</v>
@@ -13020,7 +13342,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="386" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A386" s="3"/>
       <c r="B386" s="3" t="s">
         <v>380</v>
@@ -13047,7 +13369,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="387" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A387" s="3"/>
       <c r="B387" s="3" t="s">
         <v>381</v>
@@ -13074,7 +13396,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="388" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A388" s="3"/>
       <c r="B388" s="3" t="s">
         <v>382</v>
@@ -13101,10 +13423,12 @@
         <v>462</v>
       </c>
     </row>
-    <row r="389" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A389" s="3"/>
+    <row r="389" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A389" s="5" t="s">
+        <v>659</v>
+      </c>
       <c r="B389" s="3" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>466</v>
@@ -13113,10 +13437,10 @@
         <v>459</v>
       </c>
       <c r="E389" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F389" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G389" s="3" t="s">
         <v>511</v>
@@ -13128,10 +13452,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="390" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A390" s="3"/>
+    <row r="390" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A390" s="5" t="s">
+        <v>658</v>
+      </c>
       <c r="B390" s="3" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>466</v>
@@ -13143,7 +13469,7 @@
         <v>465</v>
       </c>
       <c r="F390" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G390" s="3" t="s">
         <v>511</v>
@@ -13155,12 +13481,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="391" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A391" s="5" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>601</v>
+        <v>368</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>466</v>
@@ -13169,13 +13495,13 @@
         <v>459</v>
       </c>
       <c r="E391" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F391" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G391" s="3" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="H391" s="3" t="s">
         <v>459</v>
@@ -13184,12 +13510,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="392" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A392" s="5" t="s">
-        <v>588</v>
+    <row r="392" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A392" s="9" t="s">
+        <v>534</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>602</v>
+        <v>386</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>466</v>
@@ -13198,13 +13524,13 @@
         <v>459</v>
       </c>
       <c r="E392" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F392" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="H392" s="3" t="s">
         <v>459</v>
@@ -13213,12 +13539,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="393" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A393" s="5" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>600</v>
+        <v>383</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>466</v>
@@ -13227,13 +13553,13 @@
         <v>459</v>
       </c>
       <c r="E393" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F393" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G393" s="3" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="H393" s="3" t="s">
         <v>459</v>
@@ -13242,12 +13568,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="394" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A394" s="5" t="s">
-        <v>587</v>
+        <v>661</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>603</v>
+        <v>384</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>466</v>
@@ -13256,13 +13582,13 @@
         <v>459</v>
       </c>
       <c r="E394" s="3" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="F394" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H394" s="3" t="s">
         <v>459</v>
@@ -13271,8 +13597,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="395" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A395" s="3"/>
+    <row r="395" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A395" s="5" t="s">
+        <v>660</v>
+      </c>
       <c r="B395" s="3" t="s">
         <v>385</v>
       </c>
@@ -13298,7 +13626,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A396" s="2" t="s">
         <v>533</v>
       </c>
@@ -13327,7 +13655,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="397" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A397" s="3"/>
       <c r="B397" s="3" t="s">
         <v>387</v>
@@ -13354,7 +13682,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="398" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A398" s="3"/>
       <c r="B398" s="3" t="s">
         <v>388</v>
@@ -13381,7 +13709,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="399" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A399" s="3"/>
       <c r="B399" s="3" t="s">
         <v>389</v>
@@ -13408,7 +13736,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="400" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A400" s="3"/>
       <c r="B400" s="3" t="s">
         <v>390</v>
@@ -13435,7 +13763,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="401" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A401" s="3"/>
       <c r="B401" s="3" t="s">
         <v>391</v>
@@ -13462,7 +13790,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="402" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A402" s="3"/>
       <c r="B402" s="3" t="s">
         <v>392</v>
@@ -13489,7 +13817,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A403" s="2" t="s">
         <v>535</v>
       </c>
@@ -13518,7 +13846,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="404" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A404" s="3"/>
       <c r="B404" s="3" t="s">
         <v>394</v>
@@ -13545,7 +13873,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="405" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A405" s="3"/>
       <c r="B405" s="3" t="s">
         <v>395</v>
@@ -13572,7 +13900,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="406" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A406" s="3"/>
       <c r="B406" s="3" t="s">
         <v>396</v>
@@ -13599,7 +13927,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="407" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A407" s="3"/>
       <c r="B407" s="3" t="s">
         <v>397</v>
@@ -13626,8 +13954,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="408" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A408" s="3"/>
+    <row r="408" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A408" s="5" t="s">
+        <v>665</v>
+      </c>
       <c r="B408" s="3" t="s">
         <v>398</v>
       </c>
@@ -13653,8 +13983,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="409" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A409" s="3"/>
+    <row r="409" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A409" s="5" t="s">
+        <v>663</v>
+      </c>
       <c r="B409" s="3" t="s">
         <v>399</v>
       </c>
@@ -13680,8 +14012,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="410" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A410" s="3"/>
+    <row r="410" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A410" s="5" t="s">
+        <v>664</v>
+      </c>
       <c r="B410" s="3" t="s">
         <v>400</v>
       </c>
@@ -13707,7 +14041,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="411" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A411" s="3"/>
       <c r="B411" s="3" t="s">
         <v>401</v>
@@ -13734,7 +14068,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A412" s="3"/>
       <c r="B412" s="3" t="s">
         <v>402</v>
@@ -13761,7 +14095,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="413" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A413" s="3"/>
       <c r="B413" s="3" t="s">
         <v>403</v>
@@ -13788,7 +14122,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="414" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A414" s="3"/>
       <c r="B414" s="3" t="s">
         <v>404</v>
@@ -13815,7 +14149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="415" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A415" s="3"/>
       <c r="B415" s="3" t="s">
         <v>405</v>
@@ -13842,7 +14176,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="416" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A416" s="3"/>
       <c r="B416" s="3" t="s">
         <v>406</v>
@@ -13869,7 +14203,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="417" spans="1:9" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:9" customFormat="1" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A417" s="5" t="s">
         <v>595</v>
       </c>
@@ -13898,7 +14232,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="418" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A418" s="3"/>
       <c r="B418" s="3" t="s">
         <v>407</v>
@@ -13925,7 +14259,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="419" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A419" s="3"/>
       <c r="B419" s="3" t="s">
         <v>408</v>
@@ -13952,7 +14286,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="420" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A420" s="3"/>
       <c r="B420" s="3" t="s">
         <v>409</v>
@@ -13979,7 +14313,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="421" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A421" s="3"/>
       <c r="B421" s="3" t="s">
         <v>410</v>
@@ -14006,7 +14340,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="422" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A422" s="3"/>
       <c r="B422" s="3" t="s">
         <v>411</v>
@@ -14033,7 +14367,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="423" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A423" s="3"/>
       <c r="B423" s="3" t="s">
         <v>412</v>
@@ -14060,7 +14394,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="424" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A424" s="3"/>
       <c r="B424" s="3" t="s">
         <v>413</v>
@@ -14087,7 +14421,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="425" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A425" s="3"/>
       <c r="B425" s="3" t="s">
         <v>414</v>
@@ -14114,7 +14448,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="426" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A426" s="3"/>
       <c r="B426" s="3" t="s">
         <v>415</v>
@@ -14141,7 +14475,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="427" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A427" s="3"/>
       <c r="B427" s="3" t="s">
         <v>416</v>
@@ -14168,7 +14502,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A428" s="2" t="s">
         <v>537</v>
       </c>
@@ -14197,7 +14531,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="A429" s="2" t="s">
         <v>536</v>
       </c>
@@ -14226,7 +14560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="430" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A430" s="3"/>
       <c r="B430" s="3" t="s">
         <v>419</v>
@@ -14253,8 +14587,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="431" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A431" s="3"/>
+    <row r="431" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A431" s="5" t="s">
+        <v>667</v>
+      </c>
       <c r="B431" s="3" t="s">
         <v>420</v>
       </c>
@@ -14280,8 +14616,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="432" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A432" s="3"/>
+    <row r="432" spans="1:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A432" s="5" t="s">
+        <v>666</v>
+      </c>
       <c r="B432" s="3" t="s">
         <v>421</v>
       </c>
@@ -14307,7 +14645,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="433" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A433" s="3"/>
       <c r="B433" s="3" t="s">
         <v>422</v>
@@ -14334,7 +14672,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="434" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A434" s="3"/>
       <c r="B434" s="3" t="s">
         <v>423</v>
@@ -14361,7 +14699,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="435" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A435" s="3"/>
       <c r="B435" s="3" t="s">
         <v>424</v>
@@ -14388,7 +14726,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="436" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A436" s="3"/>
       <c r="B436" s="3" t="s">
         <v>425</v>
@@ -14415,7 +14753,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="437" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A437" s="3"/>
       <c r="B437" s="3" t="s">
         <v>426</v>
@@ -14442,7 +14780,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="438" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A438" s="3"/>
       <c r="B438" s="3" t="s">
         <v>427</v>
@@ -14469,7 +14807,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="439" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A439" s="3"/>
       <c r="B439" s="3" t="s">
         <v>428</v>
@@ -14496,7 +14834,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="440" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A440" s="3"/>
       <c r="B440" s="3" t="s">
         <v>429</v>
@@ -14523,7 +14861,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="441" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A441" s="3"/>
       <c r="B441" s="3" t="s">
         <v>430</v>
@@ -14550,7 +14888,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="442" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A442" s="3"/>
       <c r="B442" s="3" t="s">
         <v>431</v>
@@ -14577,7 +14915,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="443" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A443" s="3"/>
       <c r="B443" s="3" t="s">
         <v>432</v>
@@ -14604,7 +14942,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="444" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A444" s="3"/>
       <c r="B444" s="3" t="s">
         <v>433</v>
@@ -14631,7 +14969,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="445" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A445" s="3"/>
       <c r="B445" s="3" t="s">
         <v>434</v>
@@ -14658,7 +14996,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="446" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A446" s="3"/>
       <c r="B446" s="3" t="s">
         <v>435</v>
@@ -14685,7 +15023,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="447" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A447" s="3"/>
       <c r="B447" s="3" t="s">
         <v>436</v>
@@ -14712,7 +15050,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="448" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A448" s="3"/>
       <c r="B448" s="3" t="s">
         <v>437</v>
@@ -14739,7 +15077,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="449" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A449" s="3"/>
       <c r="B449" s="3" t="s">
         <v>438</v>
@@ -14766,7 +15104,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="450" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A450" s="3"/>
       <c r="B450" s="3" t="s">
         <v>439</v>
@@ -14793,7 +15131,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="451" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A451" s="3"/>
       <c r="B451" s="3" t="s">
         <v>440</v>
@@ -14820,7 +15158,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="452" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A452" s="3"/>
       <c r="B452" s="3" t="s">
         <v>441</v>
@@ -14847,7 +15185,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="453" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A453" s="3"/>
       <c r="B453" s="3" t="s">
         <v>442</v>
@@ -14874,7 +15212,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="454" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A454" s="3"/>
       <c r="B454" s="3" t="s">
         <v>443</v>
@@ -14901,7 +15239,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="455" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A455" s="3"/>
       <c r="B455" s="3" t="s">
         <v>444</v>
@@ -14928,7 +15266,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="456" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A456" s="3"/>
       <c r="B456" s="3" t="s">
         <v>445</v>
@@ -14955,7 +15293,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="457" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A457" s="3"/>
       <c r="B457" s="3" t="s">
         <v>446</v>
@@ -14982,7 +15320,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="458" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A458" s="3"/>
       <c r="B458" s="3" t="s">
         <v>447</v>
@@ -15009,7 +15347,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="459" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A459" s="3"/>
       <c r="B459" s="3" t="s">
         <v>448</v>
@@ -15036,7 +15374,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="460" spans="1:9" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A460" s="3"/>
       <c r="B460" s="3" t="s">
         <v>449</v>
